--- a/biology/Médecine/Fondation_Centaure/Fondation_Centaure.xlsx
+++ b/biology/Médecine/Fondation_Centaure/Fondation_Centaure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fondation de coopération scientifique Centaure est un réseau de Recherche dans le domaine des Sciences de la transplantation. Labellisé Réseau Thématique de Recherche et de Soins (RTRS)[1], le réseau a été créée en 2007[2] sous l'impulsion des Professeurs Jean-Michel Dubernard et Jean-Paul Soulillou, rapidement rejoints par le Professeur Christophe Legendre. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondation de coopération scientifique Centaure est un réseau de Recherche dans le domaine des Sciences de la transplantation. Labellisé Réseau Thématique de Recherche et de Soins (RTRS), le réseau a été créée en 2007 sous l'impulsion des Professeurs Jean-Michel Dubernard et Jean-Paul Soulillou, rapidement rejoints par le Professeur Christophe Legendre. 
 Ce réseau fédère les trois centres de Lyon, Nantes et Necker.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Missions de la fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Animer le réseau de recherche en transplantation : stimuler la coopération et le transfert de connaissances entre les chercheurs des différents centres,
 Soutenir les projets développés par les équipes par l'achat de matériel ou encore le recrutement direct de chercheurs par la Fondation,
@@ -544,7 +558,9 @@
           <t>Principaux axes de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>la prolongation de la survie des greffons et l'amélioration des traitements,
 l'augmentation des greffes de pancréas pour soigner les patients diabétiques,
@@ -576,7 +592,9 @@
           <t>Sept membres fondateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>l'INSERM,
 Les Hospices Civils de Lyon,
